--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H2">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>68.17970645162701</v>
+        <v>75.074227570643</v>
       </c>
       <c r="R2">
-        <v>613.6173580646431</v>
+        <v>675.668048135787</v>
       </c>
       <c r="S2">
-        <v>0.01252348808361298</v>
+        <v>0.01624352715547344</v>
       </c>
       <c r="T2">
-        <v>0.01252348808361298</v>
+        <v>0.01624352715547344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H3">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>306.520092354755</v>
+        <v>275.8066873832316</v>
       </c>
       <c r="R3">
-        <v>2758.680831192795</v>
+        <v>2482.260186449085</v>
       </c>
       <c r="S3">
-        <v>0.0563026877611486</v>
+        <v>0.05967525156292896</v>
       </c>
       <c r="T3">
-        <v>0.05630268776114861</v>
+        <v>0.05967525156292896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H4">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>338.44547533783</v>
+        <v>264.735907963345</v>
       </c>
       <c r="R4">
-        <v>3046.00927804047</v>
+        <v>2382.623171670105</v>
       </c>
       <c r="S4">
-        <v>0.06216685430221441</v>
+        <v>0.05727990882070799</v>
       </c>
       <c r="T4">
-        <v>0.06216685430221443</v>
+        <v>0.05727990882070799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H5">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>53.980702139353</v>
+        <v>48.281454490332</v>
       </c>
       <c r="R5">
-        <v>485.826319254177</v>
+        <v>434.533090412988</v>
       </c>
       <c r="S5">
-        <v>0.009915365072257751</v>
+        <v>0.01044647600778167</v>
       </c>
       <c r="T5">
-        <v>0.009915365072257753</v>
+        <v>0.01044647600778167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H6">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I6">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J6">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>301.494898933339</v>
+        <v>241.4454401880033</v>
       </c>
       <c r="R6">
-        <v>2713.454090400051</v>
+        <v>2173.00896169203</v>
       </c>
       <c r="S6">
-        <v>0.05537964257356622</v>
+        <v>0.05224063824790786</v>
       </c>
       <c r="T6">
-        <v>0.05537964257356623</v>
+        <v>0.05224063824790787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>30.851089</v>
       </c>
       <c r="I7">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J7">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>189.0398113224844</v>
+        <v>231.3359756175263</v>
       </c>
       <c r="R7">
-        <v>1701.358301902359</v>
+        <v>2082.023780557737</v>
       </c>
       <c r="S7">
-        <v>0.03472349688254023</v>
+        <v>0.05005329156993747</v>
       </c>
       <c r="T7">
-        <v>0.03472349688254023</v>
+        <v>0.05005329156993747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>30.851089</v>
       </c>
       <c r="I8">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J8">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
-        <v>849.8789953929261</v>
+        <v>849.878995392926</v>
       </c>
       <c r="R8">
-        <v>7648.910958536336</v>
+        <v>7648.910958536335</v>
       </c>
       <c r="S8">
-        <v>0.1561087605865204</v>
+        <v>0.1838851092745681</v>
       </c>
       <c r="T8">
-        <v>0.1561087605865204</v>
+        <v>0.1838851092745681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>30.851089</v>
       </c>
       <c r="I9">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J9">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>938.3975398340123</v>
+        <v>815.7651637782615</v>
       </c>
       <c r="R9">
-        <v>8445.577858506111</v>
+        <v>7341.886474004355</v>
       </c>
       <c r="S9">
-        <v>0.1723681579084086</v>
+        <v>0.1765040283345261</v>
       </c>
       <c r="T9">
-        <v>0.1723681579084086</v>
+        <v>0.1765040283345261</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>30.851089</v>
       </c>
       <c r="I10">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J10">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>149.6706612358112</v>
+        <v>148.775921380532</v>
       </c>
       <c r="R10">
-        <v>1347.035951122301</v>
+        <v>1338.983292424788</v>
       </c>
       <c r="S10">
-        <v>0.02749203304040372</v>
+        <v>0.03219008436352209</v>
       </c>
       <c r="T10">
-        <v>0.02749203304040373</v>
+        <v>0.03219008436352209</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>30.851089</v>
       </c>
       <c r="I11">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J11">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>835.9457934816292</v>
+        <v>743.9972181097255</v>
       </c>
       <c r="R11">
-        <v>7523.512141334663</v>
+        <v>6695.97496298753</v>
       </c>
       <c r="S11">
-        <v>0.1535494610942807</v>
+        <v>0.1609758689104088</v>
       </c>
       <c r="T11">
-        <v>0.1535494610942807</v>
+        <v>0.1609758689104089</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H12">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>90.12567563801566</v>
+        <v>75.47347612507099</v>
       </c>
       <c r="R12">
-        <v>811.1310807421411</v>
+        <v>679.2612851256389</v>
       </c>
       <c r="S12">
-        <v>0.01655460082804923</v>
+        <v>0.01632991105771915</v>
       </c>
       <c r="T12">
-        <v>0.01655460082804923</v>
+        <v>0.01632991105771915</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H13">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>405.1840622062405</v>
+        <v>277.2734413519716</v>
       </c>
       <c r="R13">
-        <v>3646.656559856165</v>
+        <v>2495.460972167744</v>
       </c>
       <c r="S13">
-        <v>0.07442563247628448</v>
+        <v>0.05999260758100064</v>
       </c>
       <c r="T13">
-        <v>0.07442563247628448</v>
+        <v>0.05999260758100064</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H14">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I14">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J14">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>447.3857210443211</v>
+        <v>266.1437869649649</v>
       </c>
       <c r="R14">
-        <v>4026.47148939889</v>
+        <v>2395.294082684684</v>
       </c>
       <c r="S14">
-        <v>0.08217738148010834</v>
+        <v>0.05758452628444301</v>
       </c>
       <c r="T14">
-        <v>0.08217738148010835</v>
+        <v>0.05758452628444301</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H15">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I15">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J15">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>71.3562364070221</v>
+        <v>48.53821771700399</v>
       </c>
       <c r="R15">
-        <v>642.2061276631989</v>
+        <v>436.8439594530359</v>
       </c>
       <c r="S15">
-        <v>0.01310696426903561</v>
+        <v>0.01050203089765448</v>
       </c>
       <c r="T15">
-        <v>0.01310696426903561</v>
+        <v>0.01050203089765448</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.355061</v>
+      </c>
+      <c r="H16">
+        <v>10.065183</v>
+      </c>
+      <c r="I16">
+        <v>0.196927532435664</v>
+      </c>
+      <c r="J16">
+        <v>0.196927532435664</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>72.34725666666667</v>
+      </c>
+      <c r="N16">
+        <v>217.04177</v>
+      </c>
+      <c r="O16">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="P16">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="Q16">
+        <v>242.7294592993233</v>
+      </c>
+      <c r="R16">
+        <v>2184.56513369391</v>
+      </c>
+      <c r="S16">
+        <v>0.05251845661484673</v>
+      </c>
+      <c r="T16">
+        <v>0.05251845661484674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.18289</v>
+      </c>
+      <c r="I17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>22.495411</v>
+      </c>
+      <c r="N17">
+        <v>67.486233</v>
+      </c>
+      <c r="O17">
+        <v>0.08292345339295874</v>
+      </c>
+      <c r="P17">
+        <v>0.08292345339295874</v>
+      </c>
+      <c r="Q17">
+        <v>1.371395239263334</v>
+      </c>
+      <c r="R17">
+        <v>12.34255715337</v>
+      </c>
+      <c r="S17">
+        <v>0.0002967236098286794</v>
+      </c>
+      <c r="T17">
+        <v>0.0002967236098286794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.18289</v>
+      </c>
+      <c r="I18">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J18">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N18">
+        <v>247.930015</v>
+      </c>
+      <c r="O18">
+        <v>0.3046430676248896</v>
+      </c>
+      <c r="P18">
+        <v>0.3046430676248896</v>
+      </c>
+      <c r="Q18">
+        <v>5.038213382594444</v>
+      </c>
+      <c r="R18">
+        <v>45.34392044334999</v>
+      </c>
+      <c r="S18">
+        <v>0.001090099206391897</v>
+      </c>
+      <c r="T18">
+        <v>0.001090099206391896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.902803666666666</v>
-      </c>
-      <c r="H16">
-        <v>14.708411</v>
-      </c>
-      <c r="I16">
-        <v>0.2594700526950464</v>
-      </c>
-      <c r="J16">
-        <v>0.2594700526950464</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>81.28845566666666</v>
-      </c>
-      <c r="N16">
-        <v>243.865367</v>
-      </c>
-      <c r="O16">
-        <v>0.2821345773094156</v>
-      </c>
-      <c r="P16">
-        <v>0.2821345773094157</v>
-      </c>
-      <c r="Q16">
-        <v>398.5413385002041</v>
-      </c>
-      <c r="R16">
-        <v>3586.872046501837</v>
-      </c>
-      <c r="S16">
-        <v>0.07320547364156869</v>
-      </c>
-      <c r="T16">
-        <v>0.07320547364156871</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.18289</v>
+      </c>
+      <c r="I19">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J19">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>79.32606499999999</v>
+      </c>
+      <c r="N19">
+        <v>237.978195</v>
+      </c>
+      <c r="O19">
+        <v>0.2924148064631633</v>
+      </c>
+      <c r="P19">
+        <v>0.2924148064631633</v>
+      </c>
+      <c r="Q19">
+        <v>4.835981342616666</v>
+      </c>
+      <c r="R19">
+        <v>43.52383208354999</v>
+      </c>
+      <c r="S19">
+        <v>0.001046343023486188</v>
+      </c>
+      <c r="T19">
+        <v>0.001046343023486188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.18289</v>
+      </c>
+      <c r="I20">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J20">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.467164</v>
+      </c>
+      <c r="N20">
+        <v>43.401492</v>
+      </c>
+      <c r="O20">
+        <v>0.05332941903938943</v>
+      </c>
+      <c r="P20">
+        <v>0.05332941903938943</v>
+      </c>
+      <c r="Q20">
+        <v>0.88196654132</v>
+      </c>
+      <c r="R20">
+        <v>7.937698871879999</v>
+      </c>
+      <c r="S20">
+        <v>0.0001908277704312011</v>
+      </c>
+      <c r="T20">
+        <v>0.0001908277704312011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.18289</v>
+      </c>
+      <c r="I21">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J21">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>72.34725666666667</v>
+      </c>
+      <c r="N21">
+        <v>217.04177</v>
+      </c>
+      <c r="O21">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="P21">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="Q21">
+        <v>4.410529923922223</v>
+      </c>
+      <c r="R21">
+        <v>39.6947693153</v>
+      </c>
+      <c r="S21">
+        <v>0.0009542897064354737</v>
+      </c>
+      <c r="T21">
+        <v>0.0009542897064354738</v>
       </c>
     </row>
   </sheetData>
